--- a/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based_PFCN_MLP.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based_PFCN_MLP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.225638992084079</v>
+        <v>0.1858041794501848</v>
       </c>
       <c r="C2" t="n">
-        <v>1.313430799062633e-05</v>
+        <v>1.073321009731096e-05</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,18 +486,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1842820795732025</v>
+        <v>0.1631266013841505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005220099009432396</v>
+        <v>0.04287097855996688</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,14 +509,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1520390503502655</v>
+        <v>0.1600448204940108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01966026238265081</v>
+        <v>0.01674143160788822</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -532,16 +532,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1488226439821626</v>
+        <v>0.1579667796365734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05939162132802787</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.001196556569303404</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -551,20 +555,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1106584988053422</v>
+        <v>0.08863273087079403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01592186990842171</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1651493299955431</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -578,16 +578,12 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09927422850568943</v>
+        <v>0.07885812993426689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04314464091583445</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1127751575562337</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -597,18 +593,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07386927887923478</v>
+        <v>0.07446976873961435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003476805523860357</v>
+        <v>0.0149309985502409</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -620,14 +616,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06764519321479408</v>
+        <v>0.06276111155054132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002806666173108745</v>
+        <v>0.002524758808345313</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -643,14 +639,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06210951007806846</v>
+        <v>0.04838939219544224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03913406588012205</v>
+        <v>0.03051502028525516</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -670,16 +666,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05431671586347018</v>
+        <v>0.04378602695855295</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03897355146882508</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1005754032866274</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -693,10 +685,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04760532402925734</v>
+        <v>0.04098882637106277</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4304509452812564</v>
+        <v>0.5059933742482789</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -712,10 +704,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0449575126422205</v>
+        <v>0.035072102975714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06051335396965542</v>
+        <v>0.1483989902582347</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -731,10 +723,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01439231293964809</v>
+        <v>0.005315950142810947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6787074285282084</v>
+        <v>0.8805891829710073</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -746,14 +738,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003535166289157381</v>
+        <v>0.003590137805270881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9241361293429456</v>
+        <v>0.8716255135987618</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -765,20 +757,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.178158855792532e-17</v>
+        <v>-0.01107198168336455</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001199941646057908</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8215505641333767</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -788,14 +776,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.004837947943671345</v>
+        <v>-0.01558347279034525</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9183136158211781</v>
+        <v>0.677985172700702</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -807,14 +795,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01349701799571387</v>
+        <v>-0.04532390125790249</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7788801872977138</v>
+        <v>0.2963787971461635</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -826,14 +814,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03074900876018015</v>
+        <v>-0.05608168827663514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1961525839457733</v>
+        <v>0.06082551923675501</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -845,14 +833,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.04954841547647206</v>
+        <v>-0.08149877470907836</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4180973306831015</v>
+        <v>0.08334769536313674</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -864,20 +852,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.07455850942555491</v>
+        <v>-0.08426847144988336</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01238932026652809</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1725688952588132</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -887,16 +871,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.08133392961679295</v>
+        <v>-0.09722701265145819</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06305320419102085</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.01671518440385939</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -910,10 +898,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1046817691789617</v>
+        <v>-0.1090690052816131</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04518720828316396</v>
+        <v>0.04099534389381027</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -933,10 +921,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1308033281184904</v>
+        <v>-0.1494934769920202</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001734167542587245</v>
+        <v>2.276018185991608e-05</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -952,63 +940,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1451788308386799</v>
+        <v>-0.1977126735140924</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003730792670205768</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1336593844589232</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.1985208773710455</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0004871706216804235</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.2230853097806758</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.08459105641519726</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
         <is>
           <t>hit@5</t>
         </is>

--- a/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based_PFCN_MLP.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_accuracy_metric_based_PFCN_MLP.xlsx
@@ -463,14 +463,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1858041794501848</v>
+        <v>0.546763049236594</v>
       </c>
       <c r="C2" t="n">
-        <v>1.073321009731096e-05</v>
+        <v>6.231606615108269e-06</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,18 +486,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1631266013841505</v>
+        <v>0.4408078835009135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04287097855996688</v>
+        <v>8.596591100967817e-36</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,18 +509,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1600448204940108</v>
+        <v>0.2914264858811659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01674143160788822</v>
+        <v>7.035677742418623e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -532,18 +532,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1579667796365734</v>
+        <v>0.2488210810923321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001196556569303404</v>
+        <v>0.01022124005887518</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -555,14 +555,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08863273087079403</v>
+        <v>0.1894205001752478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1651493299955431</v>
+        <v>0.1363847630317341</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -574,16 +574,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07885812993426689</v>
+        <v>0.18157125575435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1127751575562337</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.03577412901078502</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -593,20 +597,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07446976873961435</v>
+        <v>0.1717554008553814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0149309985502409</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.5741822160042895</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -616,20 +616,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06276111155054132</v>
+        <v>0.1254435953304924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002524758808345313</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.2020361500002282</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -639,20 +635,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04838939219544224</v>
+        <v>0.1031476130634542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03051502028525516</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.5374017735753032</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -662,14 +654,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04378602695855295</v>
+        <v>0.03531811483490772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1005754032866274</v>
+        <v>0.5861867290397487</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -681,14 +673,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04098882637106277</v>
+        <v>0.001567850702766681</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5059933742482789</v>
+        <v>0.9763349807189233</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -700,14 +692,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.035072102975714</v>
+        <v>-0.007753106883455846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1483989902582347</v>
+        <v>0.9587263351808206</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -719,14 +711,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.005315950142810947</v>
+        <v>-0.0163400758992207</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8805891829710073</v>
+        <v>0.7551993971738867</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -738,14 +730,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003590137805270881</v>
+        <v>-0.02409081571493368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8716255135987618</v>
+        <v>0.7021988523963768</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -757,14 +749,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01107198168336455</v>
+        <v>-0.02785104716500537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8215505641333767</v>
+        <v>0.8496168886576503</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -776,14 +768,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01558347279034525</v>
+        <v>-0.03090422576441999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.677985172700702</v>
+        <v>0.8450471146786742</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -795,14 +787,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.04532390125790249</v>
+        <v>-0.03491013427603572</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2963787971461635</v>
+        <v>0.666280543894218</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -814,14 +806,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05608168827663514</v>
+        <v>-0.1074262433468615</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06082551923675501</v>
+        <v>0.3545744152046785</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -833,14 +825,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.08149877470907836</v>
+        <v>-0.1298326254792147</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08334769536313674</v>
+        <v>0.1654394095833721</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -852,16 +844,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.08426847144988336</v>
+        <v>-0.154465595636575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1725688952588132</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.01215001933907013</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -871,14 +867,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.09722701265145819</v>
+        <v>-0.1660084610183506</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01671518440385939</v>
+        <v>0.01569417639228231</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -894,20 +890,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1090690052816131</v>
+        <v>-0.1920396721360664</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04099534389381027</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.08580550293924216</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -917,20 +909,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1494934769920202</v>
+        <v>-0.2926230094899172</v>
       </c>
       <c r="C24" t="n">
-        <v>2.276018185991608e-05</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1310462989883689</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>hit@5</t>
@@ -940,16 +928,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1977126735140924</v>
+        <v>-0.3204740566549251</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1336593844589232</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0.01182352510263609</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>hit@5</t>
